--- a/datasets/dataset-ragas-openai.xlsx
+++ b/datasets/dataset-ragas-openai.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C911149-1127-4B79-A9AB-EBD1695003C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DEFBFD-31F3-44E2-B43A-EEF28BB89F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{C93DF466-E71C-477E-BC01-7980B3E6DD70}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="38700" windowHeight="15885" activeTab="1" xr2:uid="{C93DF466-E71C-477E-BC01-7980B3E6DD70}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset-ragas-openai-edital1" sheetId="2" r:id="rId1"/>
     <sheet name="dataset-ragas-openai-edital2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">'dataset-ragas-openai-edital1'!$A$1:$D$23</definedName>
-    <definedName name="DadosExternos_1" localSheetId="1" hidden="1">'dataset-ragas-openai-edital2'!$A$1:$D$24</definedName>
+    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">'dataset-ragas-openai-edital1'!$A$1:$D$21</definedName>
+    <definedName name="DadosExternos_1" localSheetId="1" hidden="1">'dataset-ragas-openai-edital2'!$A$1:$D$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="94">
   <si>
     <t>user_input</t>
   </si>
@@ -90,12 +90,6 @@
     <t>O SISBP é o Sistema de Gestão da Bolsa Permanência, que é utilizado para aprovar o cadastro dos estudantes que solicitam a Bolsa Permanência do MEC. As bolsas são disponibilizadas por meio de fluxo contínuo, respeitando a ordem de aprovação de cadastro dos estudantes no SISBP e de acordo com a disponibilização de bolsas pelo MEC.</t>
   </si>
   <si>
-    <t>Quando será publicada a Bolsa Permanência do MEC para estudantes indígenas e quilombolas?</t>
-  </si>
-  <si>
-    <t>A Bolsa Permanência do MEC para estudantes indígenas e quilombolas será publicada no dia 5 de junho de 2024.</t>
-  </si>
-  <si>
     <t>O que é o SISBP mencionado no Edital PROAES/UFMS?</t>
   </si>
   <si>
@@ -108,12 +102,6 @@
     <t>As principais Portarias do MEC mencionadas no Edital PROAES/UFMS Nº 70 são a Portaria MEC nº 389, de 9 de maio de 2013, e a Portaria MEC nº 1.999, de 10 de novembro de 2023. O propósito dessas portarias é estabelecer as normas para o cadastro de estudantes de graduação indígenas e quilombolas para a concessão de Bolsa Permanência do MEC - BPMEC, que oferece auxílio financeiro para esses estudantes regularmente matriculados em cursos presenciais de graduação da UFMS.</t>
   </si>
   <si>
-    <t>Qual é a finalidade da FUNDAÇÃO UNIVERSIDADE FEDERAL DE MATO GROSSO DO SUL no edital mencionado?</t>
-  </si>
-  <si>
-    <t>A FUNDAÇÃO UNIVERSIDADE FEDERAL DE MATO GROSSO DO SUL, por meio da Pró-Reitoria de Assuntos Estudantis - Proaes, torna público o presente Edital de cadastro de estudantes de graduação indígenas e quilombolas, matriculados na UFMS, para solicitação de Bolsa Permanência do MEC - BPMEC.</t>
-  </si>
-  <si>
     <t>Quais são as principais informações contidas no Edital PROAES/UFMS Nº 70, de 4 de junho de 2024, relacionado à Bolsa Permanência do MEC para estudantes indígenas e quilombolas na graduação na FUNDAÇÃO UNIVERSIDADE FEDERAL DE MATO GROSSO DO SUL?</t>
   </si>
   <si>
@@ -213,12 +201,6 @@
     <t>Estudantes beneficiados com bolsas da CAPES, FAPESP e CNPq não poderão acumular Bolsas no presente programa, sendo necessária, caso aprovação neste processo, a escolha por uma das bolsas.</t>
   </si>
   <si>
-    <t>O que é a FAPESP e como ela se relaciona com as bolsas de permanência mencionadas no edital?</t>
-  </si>
-  <si>
-    <t>A FAPESP é uma fundação que concede bolsas de pesquisa e apoio a estudantes. No contexto do edital, estudantes beneficiados com bolsas da FAPESP não poderão acumular bolsas no presente programa de concessão de bolsas permanência, sendo necessária a escolha por uma das bolsas caso sejam aprovados neste processo.</t>
-  </si>
-  <si>
     <t>Quantas vagas tem para Engenharia da Computação?</t>
   </si>
   <si>
@@ -309,18 +291,6 @@
     <t>Proaes é a Pró-Reitoria de Assuntos Estudantis da UFMS, localizada na Cidade Universitária, Campo Grande (MS).</t>
   </si>
   <si>
-    <t>O que é Proaes e como eu posso usar?</t>
-  </si>
-  <si>
-    <t>Proaes é a Pró-Reitoria de Assuntos Estudantis da UFMS, localizada na Cidade Universitária, Campo Grande (MS). Para mais informações, você pode visitar o site https://proaes.ufms.br ou ligar para o telefone (67) 3345-7822.</t>
-  </si>
-  <si>
-    <t>O que é a Pró-Reitoria de Assuntos Estudantis e quais são suas funções na UFMS?</t>
-  </si>
-  <si>
-    <t>A Pró-Reitoria de Assuntos Estudantis, também conhecida como Proaes, está localizada na Cidade Universitária em Campo Grande (MS) e pode ser contatada pelo telefone (67) 3345-7822. O site oficial é https://proaes.ufms.br. A Proaes é responsável por gerenciar questões relacionadas aos estudantes, incluindo a verificação da veracidade da autodeclaração dos candidatos, que envolve a análise de características fenotípicas através de fotografias e vídeos. Além disso, a Proaes estabelece diretrizes para a apresentação de vídeos e fotografias que os candidatos devem enviar, especificando requisitos técnicos e prazos para o envio, sob pena de perda da vaga.</t>
-  </si>
-  <si>
     <t>Qual é a implicação do Artigo 299 do Código Penal mencionado na declaração do candidato autodeclarado na documentação da Pró-Reitoria de Assuntos Estudantis?</t>
   </si>
   <si>
@@ -328,12 +298,6 @@
   </si>
   <si>
     <t>O Artigo 299 do Código Penal dispõe que é crime omitir, em documento público ou particular, declaração que dele devia constar ou inserir declaração falsa ou diversa da que deveria ser escrita, com o fim de prejudicar, criar obrigação ou alterar a verdade sobre o fato juridicamente relevante. Isso implica que a omissão ou falsidade de informações na declaração pode resultar em punições, incluindo a desclassificação do candidato.</t>
-  </si>
-  <si>
-    <t>O que é a Proaes e qual é a sua função na universidade?</t>
-  </si>
-  <si>
-    <t>A Pró-Reitoria de Assuntos Estudantis - Proaes é um órgão da universidade localizado na Cidade Universitária, em Campo Grande (MS). Ela é responsável por questões relacionadas aos estudantes, incluindo a gestão de documentos e processos seletivos, como indicado no Edital Proaes/Prograd/Propp/UFMS nº 9, de 27 de junho de 2024.</t>
   </si>
   <si>
     <t>Qual é a função da UFMS no contexto da declaração para candidatos autodeclarados?</t>
@@ -454,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -462,7 +426,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,8 +518,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E95A8E0-9E24-47FC-BD89-4CB8C1DAB0E7}" name="dataset_ragas_openai_edital1" displayName="dataset_ragas_openai_edital1" ref="A1:E23" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E23" xr:uid="{9E95A8E0-9E24-47FC-BD89-4CB8C1DAB0E7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E95A8E0-9E24-47FC-BD89-4CB8C1DAB0E7}" name="dataset_ragas_openai_edital1" displayName="dataset_ragas_openai_edital1" ref="A1:E21" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E21" xr:uid="{9E95A8E0-9E24-47FC-BD89-4CB8C1DAB0E7}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{377766FF-819A-4485-9DE0-9DE9E4204FC6}" uniqueName="1" name="user_input" queryTableFieldId="1" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{3802CF1E-2812-4129-A575-68A983FF9A24}" uniqueName="3" name="reference" queryTableFieldId="3" dataDxfId="8"/>
@@ -569,8 +532,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6AE210C4-07F1-4025-AC93-958FBA4C4422}" name="dataset_ragas_openai_edital2" displayName="dataset_ragas_openai_edital2" ref="A1:E24" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E24" xr:uid="{6AE210C4-07F1-4025-AC93-958FBA4C4422}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6AE210C4-07F1-4025-AC93-958FBA4C4422}" name="dataset_ragas_openai_edital2" displayName="dataset_ragas_openai_edital2" ref="A1:E20" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E20" xr:uid="{6AE210C4-07F1-4025-AC93-958FBA4C4422}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{77844C2E-13C1-46DD-86E8-97BB7D607025}" uniqueName="1" name="user_input" queryTableFieldId="1" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{890AD9CE-EBA2-47DE-9003-AE7E6C01B895}" uniqueName="3" name="reference" queryTableFieldId="3" dataDxfId="3"/>
@@ -899,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD2A10D-4384-4942-9A62-F5477C44CBF1}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -956,7 +919,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -973,7 +936,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -990,55 +953,52 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>98</v>
+      <c r="D6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>98</v>
+      <c r="D8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1055,7 +1015,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1063,10 +1023,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -1074,112 +1034,112 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" t="s">
-        <v>98</v>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1190,88 +1150,57 @@
         <v>37</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>39</v>
       </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" t="s">
-        <v>98</v>
+      <c r="D20" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B21" t="s">
         <v>43</v>
       </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1285,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51803BF5-042D-401B-BF5D-5A6EFC654964}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,367 +1242,283 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>98</v>
+      <c r="C4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>56</v>
+        <v>87</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>98</v>
+      <c r="D9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>62</v>
+        <v>93</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="7"/>
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="B17" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>82</v>
       </c>
-      <c r="B19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B20" t="s">
         <v>83</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="7"/>
+      <c r="C20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
